--- a/Level-2/Day-12-Dynamic-Programming/198-House-Robber.xlsx
+++ b/Level-2/Day-12-Dynamic-Programming/198-House-Robber.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tw019032\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\2022-leetcode-75-study-plan\Level-2\Day-12-Dynamic-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="5個元素" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="2">
   <si>
     <t>O</t>
     <phoneticPr fontId="2"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -441,12 +441,9 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
       <c r="G4">
         <f>SUMIF(A4:E4,"O",$A$2:$E$2)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -461,9 +458,6 @@
       </c>
       <c r="D6" t="s">
         <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
       </c>
       <c r="G6">
         <f>SUMIF(A6:E6,"O",$A$2:$E$2)</f>
@@ -483,53 +477,116 @@
       <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <f>SUMIF(A8:E8,"O",$A$2:$E$2)</f>
+        <f t="shared" ref="G8:G21" si="0">SUMIF(A8:E8,"O",$A$2:$E$2)</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="G9">
-        <f>SUMIF(A9:E9,"O",$A$2:$E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
       <c r="G10">
-        <f>SUMIF(A10:E10,"O",$A$2:$E$2)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="G11">
-        <f>SUMIF(A11:E11,"O",$A$2:$E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
       <c r="G12">
-        <f>SUMIF(A12:E12,"O",$A$2:$E$2)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="G13">
-        <f>SUMIF(A13:E13,"O",$A$2:$E$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
       <c r="G14">
-        <f>SUMIF(A14:E14,"O",$A$2:$E$2)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="G15">
-        <f>SUMIF(A15:E15,"O",$A$2:$E$2)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -550,7 +607,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -747,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q16" si="0">SUMIF(A6:O6,"O",$A$2:$O$2)</f>
+        <f t="shared" ref="Q6:Q15" si="0">SUMIF(A6:O6,"O",$A$2:$O$2)</f>
         <v>42</v>
       </c>
     </row>
@@ -863,9 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
